--- a/branches/combine-encounter-changes/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/combine-encounter-changes/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T13:10:08+00:00</t>
+    <t>2023-02-06T13:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/combine-encounter-changes/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/combine-encounter-changes/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T13:10:41+00:00</t>
+    <t>2023-02-06T14:20:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/combine-encounter-changes/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/combine-encounter-changes/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T14:20:41+00:00</t>
+    <t>2023-02-06T14:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
